--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,327 +43,354 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>disappointment</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>bottom</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>loose</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>inches</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>fell</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>un</t>
+    <t>bit</t>
   </si>
   <si>
     <t>seem</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>want</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>2</t>
+    <t>like</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>like</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -379,15 +406,12 @@
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
@@ -397,22 +421,25 @@
     <t>enjoyed</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
     <t>family</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>easy</t>
@@ -779,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,10 +814,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -866,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K3">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -890,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -898,13 +925,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -916,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -940,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -969,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K5">
-        <v>0.7678571428571429</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -990,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -998,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1016,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K6">
-        <v>0.6881720430107527</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L6">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1040,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1048,13 +1075,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.796875</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1090,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1098,13 +1125,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1116,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1140,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1148,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1166,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K9">
-        <v>0.609375</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1190,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1198,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1216,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K10">
-        <v>0.4492753623188406</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1240,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>38</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1248,13 +1275,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7526881720430108</v>
+        <v>0.734375</v>
       </c>
       <c r="C11">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1266,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11">
-        <v>0.3754098360655738</v>
+        <v>0.321377331420373</v>
       </c>
       <c r="L11">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="M11">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1290,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>762</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1298,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1316,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K12">
-        <v>0.3299856527977044</v>
+        <v>0.3008298755186722</v>
       </c>
       <c r="L12">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="M12">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1340,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>467</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1348,13 +1375,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7391304347826086</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1369,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K13">
-        <v>0.3070539419087137</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1390,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>334</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1398,13 +1425,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7027027027027027</v>
+        <v>0.72</v>
       </c>
       <c r="C14">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1416,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K14">
-        <v>0.2833333333333333</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1440,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1448,13 +1475,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6990291262135923</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C15">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1466,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K15">
-        <v>0.2830188679245283</v>
+        <v>0.2171253822629969</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1490,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,13 +1525,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6901408450704225</v>
+        <v>0.6959459459459459</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1516,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K16">
-        <v>0.2079510703363914</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L16">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1540,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>259</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1548,13 +1575,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6842105263157895</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1566,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K17">
-        <v>0.1987951807228916</v>
+        <v>0.1796875</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1590,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1598,13 +1625,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6458333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1616,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K18">
-        <v>0.164021164021164</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1640,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1648,13 +1675,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.64</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1666,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K19">
-        <v>0.1484375</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1690,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>109</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1698,13 +1725,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5818181818181818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1716,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K20">
-        <v>0.119047619047619</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1740,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>111</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1748,13 +1775,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1766,31 +1793,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K21">
-        <v>0.1126760563380282</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>126</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1798,13 +1825,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5526315789473685</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1816,31 +1843,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22">
+        <v>0.1048951048951049</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>128</v>
-      </c>
-      <c r="K22">
-        <v>0.1104294478527607</v>
-      </c>
-      <c r="L22">
-        <v>126</v>
-      </c>
-      <c r="M22">
-        <v>126</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1015</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1848,13 +1875,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5483870967741935</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1866,31 +1893,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K23">
-        <v>0.1075268817204301</v>
+        <v>0.06627680311890838</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>166</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1898,13 +1925,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5476190476190477</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1916,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24">
+        <v>0.05292479108635097</v>
+      </c>
+      <c r="L24">
         <v>19</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
       <c r="M24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1940,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>228</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1948,13 +1975,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5378151260504201</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C25">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1966,31 +1993,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K25">
-        <v>0.05855562784645413</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1447</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1998,13 +2025,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5370370370370371</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2016,31 +2043,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K26">
-        <v>0.05292479108635097</v>
+        <v>0.04021447721179625</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2048,13 +2075,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5304347826086957</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C27">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2066,31 +2093,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K27">
-        <v>0.04021447721179625</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>358</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2098,13 +2125,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5185185185185185</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2116,31 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28">
-        <v>0.02275769745649264</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
-      <c r="M28">
-        <v>22</v>
-      </c>
-      <c r="N28">
-        <v>0.77</v>
-      </c>
-      <c r="O28">
-        <v>0.23</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>730</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2148,13 +2151,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4888888888888889</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2166,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2200,13 +2203,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4578313253012048</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2218,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2226,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.453125</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2244,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2252,13 +2255,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4526315789473684</v>
+        <v>0.453125</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2278,13 +2281,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4523809523809524</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2296,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2304,13 +2307,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4444444444444444</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2322,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2330,13 +2333,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4173228346456693</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2356,13 +2359,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4081632653061225</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2374,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2382,13 +2385,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4074074074074074</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2400,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2408,13 +2411,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2426,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2434,13 +2437,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3902439024390244</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2452,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2460,13 +2463,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3820224719101123</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2478,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2486,13 +2489,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3818181818181818</v>
+        <v>0.3984375</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2512,13 +2515,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3793103448275862</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2530,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2538,13 +2541,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3720930232558139</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2556,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2564,13 +2567,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3673469387755102</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2582,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2590,13 +2593,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3515625</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2608,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2616,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3333333333333333</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>21</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2642,13 +2645,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3317535545023697</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="C48">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2660,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2668,13 +2671,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3316831683168317</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C49">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2686,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>135</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2694,13 +2697,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3278688524590164</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2712,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>41</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2720,13 +2723,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3043478260869565</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2738,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2746,13 +2749,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3035714285714285</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2772,13 +2775,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2857142857142857</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2790,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2798,13 +2801,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2755102040816326</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2816,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2824,13 +2827,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2666666666666667</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2842,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>55</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2850,13 +2853,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.264957264957265</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2868,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2876,13 +2879,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2537313432835821</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2902,13 +2905,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2432432432432433</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2920,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2928,13 +2931,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2427536231884058</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C59">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2946,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>209</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2954,13 +2957,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2394366197183098</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2972,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2980,13 +2983,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2371134020618557</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2998,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3006,13 +3009,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2318840579710145</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3024,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3032,13 +3035,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2314814814814815</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3050,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3058,13 +3061,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2307692307692308</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3076,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3084,13 +3087,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.23</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C65">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3102,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>154</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3110,25 +3113,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2278481012658228</v>
+        <v>0.2303120356612184</v>
       </c>
       <c r="C66">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D66">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>244</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3136,25 +3139,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2232142857142857</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="C67">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F67">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>522</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3162,13 +3165,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2027027027027027</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3180,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3188,25 +3191,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1974522292993631</v>
+        <v>0.2149532710280374</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>126</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3214,25 +3217,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1923076923076923</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3240,13 +3243,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.189873417721519</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3258,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>256</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3266,13 +3269,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1875</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C72">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D72">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3284,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>156</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3292,13 +3295,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1846153846153846</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3310,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3318,13 +3321,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1752577319587629</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3336,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>80</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3344,13 +3347,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1718061674008811</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C75">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3362,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>376</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3370,13 +3373,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1714285714285714</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3388,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>145</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3396,25 +3399,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.170028818443804</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C77">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E77">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>288</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3422,13 +3425,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.15625</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C78">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3440,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3448,13 +3451,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1530054644808743</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D79">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3466,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>155</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3474,13 +3477,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1525423728813559</v>
+        <v>0.18</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D80">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3492,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3500,13 +3503,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.15</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3518,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3526,7 +3529,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1401869158878505</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C82">
         <v>30</v>
@@ -3544,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3552,25 +3555,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1382978723404255</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>162</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3578,13 +3581,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1361256544502618</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3596,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3604,13 +3607,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1290322580645161</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C85">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3622,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>216</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3630,13 +3633,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1287671232876712</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="C86">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3648,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>318</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3656,25 +3659,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.124223602484472</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>141</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3682,13 +3685,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1235955056179775</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C88">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D88">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3700,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>234</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3708,13 +3711,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1142857142857143</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3726,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3734,25 +3737,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1038961038961039</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3760,13 +3763,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
         <v>17</v>
-      </c>
-      <c r="D91">
-        <v>18</v>
       </c>
       <c r="E91">
         <v>0.06</v>
@@ -3778,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3786,25 +3789,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09534883720930233</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C92">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D92">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E92">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F92">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>389</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3812,13 +3815,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09014084507042254</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3830,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>323</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3838,25 +3841,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.0894854586129754</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C94">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E94">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>407</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3864,13 +3867,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08928571428571429</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="C95">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3882,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>255</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3890,25 +3893,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.08517350157728706</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C96">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D96">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>290</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3916,25 +3919,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.08415841584158416</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="C97">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>555</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3942,25 +3945,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.05152224824355972</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C98">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F98">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>405</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3968,25 +3971,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.04556962025316456</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="C99">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D99">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>754</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3994,25 +3997,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.04287901990811639</v>
+        <v>0.09225700164744646</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D100">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E100">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F100">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>625</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4020,25 +4023,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04183266932270916</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C101">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>481</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4046,25 +4049,285 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.03846153846153846</v>
+        <v>0.08908685968819599</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D102">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.08732394366197183</v>
+      </c>
+      <c r="C103">
+        <v>31</v>
+      </c>
+      <c r="D103">
+        <v>31</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.08214285714285714</v>
+      </c>
+      <c r="C104">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>23</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.06511627906976744</v>
+      </c>
+      <c r="C105">
+        <v>28</v>
+      </c>
+      <c r="D105">
+        <v>32</v>
+      </c>
+      <c r="E105">
+        <v>0.12</v>
+      </c>
+      <c r="F105">
+        <v>0.88</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.05696202531645569</v>
+      </c>
+      <c r="C106">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>19</v>
+      </c>
+      <c r="E106">
+        <v>0.05</v>
+      </c>
+      <c r="F106">
+        <v>0.95</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.04683544303797468</v>
+      </c>
+      <c r="C107">
+        <v>37</v>
+      </c>
+      <c r="D107">
+        <v>41</v>
+      </c>
+      <c r="E107">
+        <v>0.1</v>
+      </c>
+      <c r="F107">
+        <v>0.9</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.04063205417607223</v>
+      </c>
+      <c r="C108">
+        <v>18</v>
+      </c>
+      <c r="D108">
         <v>22</v>
       </c>
-      <c r="E102">
-        <v>0.23</v>
-      </c>
-      <c r="F102">
-        <v>0.77</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102">
+      <c r="E108">
+        <v>0.18</v>
+      </c>
+      <c r="F108">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
         <v>425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.03834355828220859</v>
+      </c>
+      <c r="C109">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>28</v>
+      </c>
+      <c r="E109">
+        <v>0.11</v>
+      </c>
+      <c r="F109">
+        <v>0.89</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.03578528827037773</v>
+      </c>
+      <c r="C110">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>0.05</v>
+      </c>
+      <c r="F110">
+        <v>0.95</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.03504672897196261</v>
+      </c>
+      <c r="C111">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>0.06</v>
+      </c>
+      <c r="F111">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>0.02177068214804064</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>0.17</v>
+      </c>
+      <c r="F112">
+        <v>0.83</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
